--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_25.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_25.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9933075184914877</v>
+        <v>0.8415351627044151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7993839491915736</v>
+        <v>0.6236640631692835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7539531084131337</v>
+        <v>0.7218527352882691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9834934802448392</v>
+        <v>0.7661866341698955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02785763294724177</v>
+        <v>0.3755921902890019</v>
       </c>
       <c r="G2" t="n">
-        <v>1.341520455507922</v>
+        <v>2.516560142454653</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8800954645877381</v>
+        <v>0.9949166379688018</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02682628327379938</v>
+        <v>0.5774826783870446</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303619021217247</v>
+        <v>1.277021685081809</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1669060602471995</v>
+        <v>0.6128557663015025</v>
       </c>
       <c r="L2" t="n">
-        <v>1.428318816544788</v>
+        <v>0.7842180938953738</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1695346638512437</v>
+        <v>0.6225076319897437</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1612965533011</v>
+        <v>35.95850264898398</v>
       </c>
       <c r="O2" t="n">
-        <v>278.4964690965175</v>
+        <v>72.9230862372098</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9933666452108866</v>
+        <v>0.8417286429409713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.799181634666601</v>
+        <v>0.6233370104205018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75553134326778</v>
+        <v>0.7219606443583437</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9858405982604972</v>
+        <v>0.7689096961435665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0276115163992478</v>
+        <v>0.3751336048572683</v>
       </c>
       <c r="G3" t="n">
-        <v>1.342873333667987</v>
+        <v>2.518747145691695</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8744502100239826</v>
+        <v>0.9945306534820725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02301176309031898</v>
+        <v>0.5707571384830853</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2283257766910745</v>
+        <v>1.273177911524022</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1661671339322184</v>
+        <v>0.6124815138902303</v>
       </c>
       <c r="L3" t="n">
-        <v>1.424534706503259</v>
+        <v>0.7844815563451524</v>
       </c>
       <c r="M3" t="n">
-        <v>0.168784100185457</v>
+        <v>0.6221274854771091</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1790446648916</v>
+        <v>35.96094607368971</v>
       </c>
       <c r="O3" t="n">
-        <v>278.5142172081081</v>
+        <v>72.92552966191553</v>
       </c>
     </row>
     <row r="4">
@@ -610,193 +610,193 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9934151436486589</v>
+        <v>0.8425904756591933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7987858644855701</v>
+        <v>0.6214896239322081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7573346570464222</v>
+        <v>0.722300788403811</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9880846687004944</v>
+        <v>0.7823246836205318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02740964035726567</v>
+        <v>0.3730908952958031</v>
       </c>
       <c r="G4" t="n">
-        <v>1.345519850690894</v>
+        <v>2.531100627645348</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8679998611999202</v>
+        <v>0.993313977954121</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01936471512365701</v>
+        <v>0.537624204139393</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2505874143918265</v>
+        <v>1.247935826631601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1655585707756191</v>
+        <v>0.6108116692531366</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42143080648583</v>
+        <v>0.7856551157912419</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1681659527674813</v>
+        <v>0.6204313424562133</v>
       </c>
       <c r="N4" t="n">
-        <v>137.1937209792243</v>
+        <v>35.97186640381018</v>
       </c>
       <c r="O4" t="n">
-        <v>278.5288935224406</v>
+        <v>72.936449992036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_5</t>
+          <t>model_1_25_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9933200295679692</v>
+        <v>0.8432872685237714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.798724994487321</v>
+        <v>0.6193310812087803</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7593680327887684</v>
+        <v>0.7225228874200234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9900350631029108</v>
+        <v>0.7989684341593526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02780555525738158</v>
+        <v>0.3714393619799515</v>
       </c>
       <c r="G5" t="n">
-        <v>1.345926888649466</v>
+        <v>2.545534812776085</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8607265940714476</v>
+        <v>0.99251954265117</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01619494744937208</v>
+        <v>0.4965167267912074</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2893730158529308</v>
+        <v>1.222024669499052</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1667499782830018</v>
+        <v>0.6094582528606464</v>
       </c>
       <c r="L5" t="n">
-        <v>1.427518107649973</v>
+        <v>0.786603940117476</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1693761237521347</v>
+        <v>0.6190566111084614</v>
       </c>
       <c r="N5" t="n">
-        <v>137.1650388976931</v>
+        <v>35.98073930593075</v>
       </c>
       <c r="O5" t="n">
-        <v>278.5002114409095</v>
+        <v>72.94532289415658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_4</t>
+          <t>model_1_25_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9932275908837065</v>
+        <v>0.8439166847666054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7986922417706741</v>
+        <v>0.6171502376881062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7603956590402017</v>
+        <v>0.7224022360085114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9904402967283767</v>
+        <v>0.8072938992703045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02819033374844507</v>
+        <v>0.3699475242367395</v>
       </c>
       <c r="G6" t="n">
-        <v>1.346145906216497</v>
+        <v>2.560118123440694</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8570508345552645</v>
+        <v>0.9929511057543775</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01553636452637765</v>
+        <v>0.4759541217663779</v>
       </c>
       <c r="J6" t="n">
-        <v>0.306973173462471</v>
+        <v>1.14270005246017</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1678997729255316</v>
+        <v>0.6082331166886094</v>
       </c>
       <c r="L6" t="n">
-        <v>1.433434183442785</v>
+        <v>0.7874610175545265</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1705440265109114</v>
+        <v>0.6178121802664017</v>
       </c>
       <c r="N6" t="n">
-        <v>137.1375522693533</v>
+        <v>35.98878821957874</v>
       </c>
       <c r="O6" t="n">
-        <v>278.4727248125697</v>
+        <v>72.95337180780456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_6</t>
+          <t>model_1_25_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9933966951562148</v>
+        <v>0.8439616242159587</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7986392890677561</v>
+        <v>0.6152156392962478</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7586601832078839</v>
+        <v>0.7220156681634103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9894469847491352</v>
+        <v>0.8159798459822334</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02748643269958103</v>
+        <v>0.3698410090848545</v>
       </c>
       <c r="G7" t="n">
-        <v>1.346500001184735</v>
+        <v>2.573054791795057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8632585309787947</v>
+        <v>0.9943338365218126</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01715068837717372</v>
+        <v>0.4545011832069262</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2702309900473525</v>
+        <v>1.107333135736163</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1657903275211827</v>
+        <v>0.6081455492600883</v>
       </c>
       <c r="L7" t="n">
-        <v>1.422611510002255</v>
+        <v>0.7875222116983267</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1684013594501158</v>
+        <v>0.6177232337384169</v>
       </c>
       <c r="N7" t="n">
-        <v>137.1881255048576</v>
+        <v>35.98936414173932</v>
       </c>
       <c r="O7" t="n">
-        <v>278.523298048074</v>
+        <v>72.95394772996514</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9930861221551434</v>
+        <v>0.836196639255833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7985818209057558</v>
+        <v>0.5968993640567247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7612096602814183</v>
+        <v>0.7121183953706933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9902832544116718</v>
+        <v>0.8659694120150763</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02877920110785615</v>
+        <v>0.3882455192494323</v>
       </c>
       <c r="G8" t="n">
-        <v>1.346884291048647</v>
+        <v>2.69553580866044</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8541391993139362</v>
+        <v>1.029735807424512</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01579158862790794</v>
+        <v>0.3310347236161234</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3296775127062418</v>
+        <v>0.93498852186851</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696443370933912</v>
+        <v>0.6230935076290174</v>
       </c>
       <c r="L8" t="n">
-        <v>1.442488182070825</v>
+        <v>0.776948615156879</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1723160658204904</v>
+        <v>0.6329066075091802</v>
       </c>
       <c r="N8" t="n">
-        <v>137.0962046729911</v>
+        <v>35.89223471582</v>
       </c>
       <c r="O8" t="n">
-        <v>278.4313772162075</v>
+        <v>72.85681830404583</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9929147418189604</v>
+        <v>0.8352752336358851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7985300112542114</v>
+        <v>0.5956743018465381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7620070548054296</v>
+        <v>0.7104496114189387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9897872995842294</v>
+        <v>0.869100327337054</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0294925763325293</v>
+        <v>0.3904294280638232</v>
       </c>
       <c r="G9" t="n">
-        <v>1.347230742427085</v>
+        <v>2.703727805300851</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8512869653371389</v>
+        <v>1.035704950858285</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01659761102931791</v>
+        <v>0.3233018493233318</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3508240538175063</v>
+        <v>0.8769832523915078</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1717340278818653</v>
+        <v>0.6248435228629831</v>
       </c>
       <c r="L9" t="n">
-        <v>1.453456523586532</v>
+        <v>0.7756939351637584</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1744386671499586</v>
+        <v>0.6346841837337073</v>
       </c>
       <c r="N9" t="n">
-        <v>137.0472333941005</v>
+        <v>35.88101609604446</v>
       </c>
       <c r="O9" t="n">
-        <v>278.3824059373169</v>
+        <v>72.84559968427028</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9926942082066603</v>
+        <v>0.8304161944745133</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7984307386240743</v>
+        <v>0.5903516490542542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7623892916961137</v>
+        <v>0.7050238813712367</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9887178056728023</v>
+        <v>0.8783181083765703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03041055338127781</v>
+        <v>0.4019462868980354</v>
       </c>
       <c r="G10" t="n">
-        <v>1.347894578961921</v>
+        <v>2.739320409031416</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8499197261425304</v>
+        <v>1.055112472637011</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01833574523647426</v>
+        <v>0.3005353626231952</v>
       </c>
       <c r="J10" t="n">
-        <v>0.372243329787191</v>
+        <v>0.8332909815261336</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1743862190119329</v>
+        <v>0.6339923397786723</v>
       </c>
       <c r="L10" t="n">
-        <v>1.467570674773739</v>
+        <v>0.7690773711993373</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1771326276391062</v>
+        <v>0.6439770853703569</v>
       </c>
       <c r="N10" t="n">
-        <v>136.9859311602258</v>
+        <v>35.82287362794371</v>
       </c>
       <c r="O10" t="n">
-        <v>278.3211037034422</v>
+        <v>72.78745721616953</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9924676934781839</v>
+        <v>0.8277291538028807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7983800578006892</v>
+        <v>0.5887588432927164</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7629526345851877</v>
+        <v>0.7026637700142775</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9876380463690347</v>
+        <v>0.8830232850375661</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03135342698578703</v>
+        <v>0.4083150909083006</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34823348186126</v>
+        <v>2.749971508493015</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8479046812928102</v>
+        <v>1.063554454113735</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02009056268921637</v>
+        <v>0.2889143074673904</v>
       </c>
       <c r="J11" t="n">
-        <v>0.392060282289577</v>
+        <v>0.8277009588412538</v>
       </c>
       <c r="K11" t="n">
-        <v>0.177068989339712</v>
+        <v>0.6389953762808465</v>
       </c>
       <c r="L11" t="n">
-        <v>1.482067617396233</v>
+        <v>0.7654184221996674</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1798576489177614</v>
+        <v>0.6490589146962388</v>
       </c>
       <c r="N11" t="n">
-        <v>136.9248634082726</v>
+        <v>35.79143224199201</v>
       </c>
       <c r="O11" t="n">
-        <v>278.260035951489</v>
+        <v>72.75601583021782</v>
       </c>
     </row>
   </sheetData>
